--- a/Track_Model/Track Layout & Vehicle Data vF5.xlsx
+++ b/Track_Model/Track Layout & Vehicle Data vF5.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e364079270c47917/Documents/Academics/Trains/Group4-ECE1140/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e364079270c47917/Documents/Academics/Trains/Group4-ECE1140/Track_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{686BC949-9A50-4A63-BA03-574FE949619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1F14167-43D9-4FA8-9632-E56ED586F1F2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{686BC949-9A50-4A63-BA03-574FE949619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9CB0E24-41C3-42D3-9597-22BCF3CDCBD7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blue Line" sheetId="7" r:id="rId1"/>
-    <sheet name="Red Line" sheetId="1" r:id="rId2"/>
-    <sheet name="Green Line" sheetId="2" r:id="rId3"/>
+    <sheet name="Red Line" sheetId="1" r:id="rId1"/>
+    <sheet name="Green Line" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="79">
   <si>
     <t>Block Number</t>
   </si>
@@ -256,21 +255,6 @@
     <t>seconds to traverse block</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Switch ( 5 to 6) or (5 to 11)</t>
-  </si>
-  <si>
-    <t>Station C</t>
-  </si>
-  <si>
-    <t>Station B</t>
-  </si>
-  <si>
-    <t>Yard</t>
-  </si>
-  <si>
     <t>Station Side</t>
   </si>
   <si>
@@ -285,22 +269,13 @@
   <si>
     <t>SWITCH (28-29; 150-28)</t>
   </si>
-  <si>
-    <t>Transponder</t>
-  </si>
-  <si>
-    <t>Switch (5 to 11); Light</t>
-  </si>
-  <si>
-    <t>Switch ( 5 to 6); Light</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -354,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -379,14 +354,8 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,763 +374,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="3066609" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="TextBox 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0518D34-902E-4EBF-9A22-1DBABAC59FB4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="991962">
-          <a:off x="3924720" y="5676900"/>
-          <a:ext cx="3066609" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>11                12                 13               14                    15</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>216730</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>169310</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="47" name="Group 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD9B0EC4-FB0F-4329-BDC6-0B3DB93B4A1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="37440" y="4093805"/>
-          <a:ext cx="6908336" cy="2564228"/>
-          <a:chOff x="37440" y="4060590"/>
-          <a:chExt cx="6967440" cy="2598420"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-        <mc:Choice Requires="xdr14">
-          <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-            <xdr14:nvContentPartPr>
-              <xdr14:cNvPr id="32" name="Ink 31">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D70448D-3CF3-459D-BFB7-8B7398F9DF72}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr14:cNvPr>
-              <xdr14:cNvContentPartPr/>
-            </xdr14:nvContentPartPr>
-            <xdr14:nvPr macro=""/>
-            <xdr14:xfrm>
-              <a:off x="723600" y="4060590"/>
-              <a:ext cx="5337360" cy="1179720"/>
-            </xdr14:xfrm>
-          </xdr14:contentPart>
-        </mc:Choice>
-        <mc:Fallback xmlns="">
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="32" name="Ink 31">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D70448D-3CF3-459D-BFB7-8B7398F9DF72}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr/>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="705600" y="4042950"/>
-                <a:ext cx="5373000" cy="1215360"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-        <mc:Choice Requires="xdr14">
-          <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-            <xdr14:nvContentPartPr>
-              <xdr14:cNvPr id="41" name="Ink 40">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5EE961-6407-4AA5-B8C2-8BFB44A9EA37}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr14:cNvPr>
-              <xdr14:cNvContentPartPr/>
-            </xdr14:nvContentPartPr>
-            <xdr14:nvPr macro=""/>
-            <xdr14:xfrm>
-              <a:off x="3740040" y="5308360"/>
-              <a:ext cx="3264840" cy="1155240"/>
-            </xdr14:xfrm>
-          </xdr14:contentPart>
-        </mc:Choice>
-        <mc:Fallback xmlns="">
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="41" name="Ink 40">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB5EE961-6407-4AA5-B8C2-8BFB44A9EA37}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr/>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="3722040" y="5290715"/>
-                <a:ext cx="3300480" cy="1190891"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-        <mc:Choice Requires="xdr14">
-          <xdr14:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
-            <xdr14:nvContentPartPr>
-              <xdr14:cNvPr id="42" name="Ink 41">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397CF852-D100-4BC1-B0A3-512C2172730C}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr14:cNvPr>
-              <xdr14:cNvContentPartPr/>
-            </xdr14:nvContentPartPr>
-            <xdr14:nvPr macro=""/>
-            <xdr14:xfrm>
-              <a:off x="37440" y="4831870"/>
-              <a:ext cx="559800" cy="1037160"/>
-            </xdr14:xfrm>
-          </xdr14:contentPart>
-        </mc:Choice>
-        <mc:Fallback xmlns="">
-          <xdr:pic>
-            <xdr:nvPicPr>
-              <xdr:cNvPr id="42" name="Ink 41">
-                <a:extLst>
-                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397CF852-D100-4BC1-B0A3-512C2172730C}"/>
-                  </a:ext>
-                </a:extLst>
-              </xdr:cNvPr>
-              <xdr:cNvPicPr/>
-            </xdr:nvPicPr>
-            <xdr:blipFill>
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-              <a:stretch>
-                <a:fillRect/>
-              </a:stretch>
-            </xdr:blipFill>
-            <xdr:spPr>
-              <a:xfrm>
-                <a:off x="19440" y="4813870"/>
-                <a:ext cx="595440" cy="1072800"/>
-              </a:xfrm>
-              <a:prstGeom prst="rect">
-                <a:avLst/>
-              </a:prstGeom>
-            </xdr:spPr>
-          </xdr:pic>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="TextBox 42">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7553888-AF3F-4C2E-8490-91185DA1BB90}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="19988673">
-            <a:off x="3722226" y="4343399"/>
-            <a:ext cx="2334485" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>6            7              8               9             10</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="TextBox 44">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5815E7FD-B5AC-4770-AEDE-E8EB49B3C9AD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="19627616">
-            <a:off x="5588000" y="4191000"/>
-            <a:ext cx="701089" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Station B</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="46" name="TextBox 45">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB49F71-FDF4-423B-BDFD-CFC04E524693}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm rot="1012510">
-            <a:off x="6299969" y="6394450"/>
-            <a:ext cx="699550" cy="264560"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>Station C</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>138739</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>142345</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94798052-9C54-44AB-8502-D95F0D110CBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3682039"/>
-          <a:ext cx="9626600" cy="3686606"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>398145</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>87767</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACBCF30-F8D8-43B1-8FED-FEE5BCE58244}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2714625" y="5595938"/>
-          <a:ext cx="274320" cy="263979"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1360490</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1628181</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEABAACD-0683-419B-89FE-355ABB77E3E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5246690" y="5876925"/>
-          <a:ext cx="267691" cy="565483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1370015</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1637706</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>117808</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4124181-B286-4215-B76C-B17CE5A0BB81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5256215" y="4419600"/>
-          <a:ext cx="267691" cy="565483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>100014</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>524123</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4885723-EB4A-07A8-B5D7-8888025751A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7743824" y="6777039"/>
-          <a:ext cx="514599" cy="323849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>51527</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF665C2A-2497-473F-B1EC-71F288379E9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7248524" y="4557713"/>
-          <a:ext cx="537303" cy="338137"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-10-03T17:51:59.675"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1539 3212,'281'0,"-267"1,-2 0,25 6,-23-4,-1 0,20 0,418-1,-221-4,-37 2,-179 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2111.37">3166 3230,'1313'0,"-1298"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3690.33">4967 3212,'1190'0,"-1176"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5880.65">6628 3194,'1133'0,"-1120"1,-2 0,26 6,14 2,-37-9</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8698.84">0 3194,'559'0,"-543"1,0 0,23 6,-22-4,-1-1,21 3,13-6,-25 0,0 1,1 1,-2 2,27 5,-25-4,3 0,-2-2,1-1,35-3,1 0,5 2,-53 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14544.8">8430 3038,'5'-1,"1"0,0 1,-2-2,2 0,-1 0,0 0,0-1,0 1,0-1,0 0,0-1,5-5,-5 4,3 0,-2 1,0 0,1 0,1 2,5-5,22-5,-2-2,61-30,-16 4,41-8,74-31,-174 72,37-10,-37 12,0 0,25-10,-20 4,1 1,1 1,44-9,-55 14,-3 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15826.33">9672 2534,'1'-2,"-1"1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,3-1,29-16,-29 15,47-18,51-18,-85 33,106-45,-79 32,0 2,51-12,-51 16,-1-1,-2-2,53-26,-82 36,1 0,0 2,25-4,24-8,146-79,-73 31,-122 59</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17031.64">11158 1924,'1'-1,"-1"0,0 0,0 0,2 0,-2 0,1 0,-1-1,1 1,0 0,-1 0,1 0,0 0,0 0,-1 0,1 1,-1-1,1 0,2-1,23-14,-12 8,26-18,70-31,-63 34,53-36,-70 40,2 3,48-20,-45 21,-2-2,35-20,-41 22,49-22,9-5,-33 8,-42 29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18376.25">12312 1280,'12'-1,"0"-1,-1 0,2-1,-2 0,2-1,-2 0,-1-1,14-6,-7 2,0 2,27-8,-14 3,1 2,-1-2,46-27,35-17,-52 30,69-44,3-1,-119 64,-1 0,0 0,14-12,-1 0,-19 15,1 1,0 0,0 0,0 1,0 0,13-3,-14 4,2-1,0 1,-2-2,2 1,-1-1,-1 1,10-7,27-19,-32 23</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20112.79">13642 618,'4'-1,"-1"0,1 0,-1 0,-1 0,0-1,1 1,0-1,0 0,-1 1,2-1,-2-1,-1 1,5-4,4-2,5-3,0 2,1-1,-1 1,30-11,-27 13,0-2,0 0,28-19,-25 13,1 1,45-19,-13 5,59-43,28-4,-89 49,-37 18,0 1,0 0,-2 0,1-2,-1-1,19-16,-24 20,0-2,1 2,-2 1,3-1,-2 1,17-5,21-12,-36 16,4-2,0-1,0-1,18-17,-24 20</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-10-03T17:52:26.623"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1,'5'1,"0"0,-1 1,1 0,-1 0,1 0,-2 0,2 1,-1-1,0 1,5 6,3-1,307 214,-223-167,22 14,-86-47,77 47,-11-10,-47-27,70 34,-90-51,35 25,17 8,-26-26,-39-15,1 1,29 18,-26-11,-13-9,1 0,0 0,0 0,0-1,1-1,11 5,-19-9,-1 1,0 0,0-1,0 1,1 0,-1 1,0-1,-1 0,3 1,4 6</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1441.7">1785 993,'10'1,"-2"1,2 1,-3-1,3 1,-2 1,0 0,1 0,-1 1,9 5,11 6,221 96,-217-99,1 2,451 167,-468-177,61 18,91 37,-134-37,-29-19,3 3</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2595.19">3498 1689,'9'1,"2"0,-2 1,1 0,-1 0,14 5,12 5,104 23,149 39,315 74,-497-120,28 5,-113-29</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4113.38">5405 2177,'6'1,"2"0,-2 0,0 1,0-1,0 2,0-1,0 0,6 4,14 5,34 9,0-4,74 10,-69-14,31 7,7-2,150 49,-4 1,-232-64,4 4,0 0,0 1,23 12,-19-8,11 2,0-1,57 11,8 2,-85-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5566.46">7292 2716,'44'-1,"-1"3,1 1,-2 2,50 13,386 86,-178-36,-231-47,1 4,75 37,-12 3,-112-55,2 0,0-1,47 11,8 2,-65-18,-1-1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2020-10-03T17:53:30.589"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.1" units="cm"/>
-      <inkml:brushProperty name="height" value="0.1" units="cm"/>
-      <inkml:brushProperty name="color" value="#004F8B"/>
-      <inkml:brushProperty name="ignorePressure" value="1"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1505 1047,'2'-127,"-4"-137,0 253,0 1,-1-3,0 2,0 0,-1 1,-1 0,1 0,-9-11,-15-41,21 46,-3-2,2 2,-2 0,-1 2,-1-1,-20-22,4 4,11 17,1-3,-1 3,-38-27,-65-33,111 70,-28-14,-3 0,0 2,-1 4,0 1,0 1,-88-14,87 19,10 1,-1 1,1 2,-58 1,81 5,0-1,1 1,-2 1,2 0,-1 0,2 0,-1 0,-1 1,-12 14,11-9,1-1,-1 2,1 0,-11 19,-11 12,23-30,-1-1,1 1,1 3,0-2,1 1,-8 22,-17 92,18-60,-23 123,33-154,3 50,1-55,-2 1,-6 50,-6-23,-36 97,-4 45,45-172,-2 28,1 1,3 1,2 61,5-93,2 1,1-1,1 2,11 36,46 109,-48-138,39 81,-31-71,25 73,-36-89,1-2,2 0,0 0,36 46,-3 4,-38-67,0 1,1 0,-1-1,3-2,-2 1,3 0,-2 0,21 11,8 1,67 31,-99-51,1 0,-2 0,3-1,-3 0,3-1,15 1,-2-2,30-3,-46 2,0 0,-2-1,1 0,1 0,-1 0,-2-1,2 0,0 0,-1 0,9-6,5-7,23-27,-18 19,9-12,43-59,18-21,-76 95,-2 1,-2-2,23-42,-8 16,-21 33,-1 1,-1 0,1 1,-2-2,0 0,-2-1,0 2,0-1,2-27,1-16,3-13,-7 43,3-2,0 3,1-2,20-49,-16 49,-1 2,-1-2,-2 0,4-46,0 16,-7 43,2-32,-4 32,2 0,0-2,2 2,0 1,6-20,-2 10,6-24,-10 27,13-33,-11 42,-2-1,0 1,-3 0,2-1,-1 0,1-20,-5-174,1 193</inkml:trace>
-</inkml:ink>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1450,566 +664,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23F08DD-D3F3-4876-AD25-C71E6A86591A}">
-  <dimension ref="A1:J26"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>50</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="9">
-        <f>E2*D2/100</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
-        <f>I2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="str">
-        <f>A2</f>
-        <v>Blue</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>50</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="9">
-        <f t="shared" ref="I3:I6" si="0">E3*D3/100</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
-        <f>I3+J2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="str">
-        <f t="shared" ref="A4:A16" si="1">A3</f>
-        <v>Blue</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>50</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <f t="shared" ref="J4:J6" si="2">I4+J3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="9">
-        <f t="shared" ref="I7:I16" si="3">E7*D7/100</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <f t="shared" ref="J7:J16" si="4">I7+J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>50</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>50</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>50</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>50</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3">
-        <v>50</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>50</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="3">
-        <v>50</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>50</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Blue</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3">
-        <v>50</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>50</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="I21" s="12"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11">
-        <v>2</v>
-      </c>
-      <c r="D25" s="11">
-        <v>3</v>
-      </c>
-      <c r="E25" s="11">
-        <v>4</v>
-      </c>
-      <c r="F25" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -2052,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>31</v>
@@ -2262,7 +920,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="0"/>
@@ -2538,7 +1196,7 @@
         <v>34</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="0"/>
@@ -2690,7 +1348,7 @@
         <v>56</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="0"/>
@@ -2815,7 +1473,7 @@
         <v>66</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9">
         <f t="shared" si="0"/>
@@ -3138,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I36" s="9">
         <f t="shared" si="0"/>
@@ -3461,7 +2119,7 @@
         <v>69</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I46" s="9">
         <f t="shared" si="0"/>
@@ -3560,7 +2218,7 @@
         <v>36</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9">
         <f t="shared" si="0"/>
@@ -3917,7 +2575,7 @@
         <v>37</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I61" s="9">
         <f t="shared" si="0"/>
@@ -4966,11 +3624,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
@@ -5013,7 +3671,7 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>31</v>
@@ -5081,7 +3739,7 @@
         <v>45</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="1">E3*D3/100</f>
@@ -5320,7 +3978,7 @@
         <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="1"/>
@@ -5560,7 +4218,7 @@
         <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
@@ -5767,7 +4425,7 @@
         <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="1"/>
@@ -5968,7 +4626,7 @@
         <v>30</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="1"/>
@@ -6073,7 +4731,7 @@
         <v>48</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="1"/>
@@ -6352,7 +5010,7 @@
         <v>53</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="1"/>
@@ -6679,7 +5337,7 @@
         <v>54</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="1"/>
@@ -7006,7 +5664,7 @@
         <v>55</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="1"/>
@@ -7282,7 +5940,7 @@
         <v>49</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="1"/>
@@ -7552,7 +6210,7 @@
         <v>50</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="5"/>
@@ -7693,7 +6351,7 @@
         <v>62</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I78" s="3">
         <f t="shared" ref="I78:I109" si="8">E78*D78/100</f>
@@ -8065,7 +6723,7 @@
         <v>51</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I89" s="3">
         <f t="shared" si="8"/>
@@ -8335,7 +6993,7 @@
         <v>52</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I97" s="3">
         <f t="shared" si="8"/>
@@ -8639,7 +7297,7 @@
         <v>STATION; DORMONT</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I106" s="3">
         <f t="shared" si="8"/>
@@ -8947,7 +7605,7 @@
         <v>STATION; GLENBURY</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I115" s="3">
         <f t="shared" si="10"/>
@@ -9254,7 +7912,7 @@
         <v>STATION; OVERBROOK; UNDERGROUND</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I124" s="3">
         <f t="shared" si="10"/>
@@ -9582,7 +8240,7 @@
         <v>STATION; INGLEWOOD; UNDERGROUND</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I133" s="3">
         <f t="shared" si="10"/>
@@ -9910,7 +8568,7 @@
         <v>STATION; CENTRAL; UNDERDROUND</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I142" s="3">
         <f t="shared" si="10"/>

--- a/Track_Model/Track Layout & Vehicle Data vF5.xlsx
+++ b/Track_Model/Track Layout & Vehicle Data vF5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e364079270c47917/Documents/Academics/Trains/Group4-ECE1140/Track_Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{686BC949-9A50-4A63-BA03-574FE949619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9CB0E24-41C3-42D3-9597-22BCF3CDCBD7}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{686BC949-9A50-4A63-BA03-574FE949619A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66816467-0195-4DE6-A192-BCFCA04A9133}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Red Line" sheetId="1" r:id="rId1"/>
@@ -665,11 +665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="str">
-        <f t="shared" ref="A71:A134" si="5">A70</f>
+        <f t="shared" ref="A71:A135" si="5">A70</f>
         <v>Red</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3081,15 +3081,12 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="str">
-        <f t="shared" si="5"/>
-        <v xml:space="preserve"> </v>
       </c>
       <c r="C79" s="5"/>
     </row>
@@ -3480,14 +3477,14 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="str">
-        <f t="shared" ref="A135:A154" si="6">A134</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C135" s="5"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A136:A155" si="6">A135</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C136" s="5"/>
@@ -3617,6 +3614,13 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C155" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3629,8 +3633,8 @@
   <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
